--- a/INTERACTION_DATA/genus.interaction.xlsx
+++ b/INTERACTION_DATA/genus.interaction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burcutepekule/Library/CloudStorage/Dropbox/criticalwindow/code/R/RStan/INTERACTION_DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408272BE-E9CB-DD43-83D4-F50A233EEAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F920E75-F30F-464F-B4B8-B943955C906D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43900" yWindow="1820" windowWidth="28040" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="genus.interaction" sheetId="1" r:id="rId1"/>
@@ -128,16 +128,16 @@
     <t>Pvalue_postive_interaction</t>
   </si>
   <si>
-    <t>FDR_postive interaction</t>
+    <t>log2FC_of_area_sqrt</t>
   </si>
   <si>
-    <t>Pvalue_negative interaction</t>
+    <t>Pvalue_negative_interaction</t>
   </si>
   <si>
-    <t>FDR_negative interaction</t>
+    <t>FDR_negative_interaction</t>
   </si>
   <si>
-    <t>log2FC_of_area_sqrt</t>
+    <t>FDR_postive_interaction</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1042,7 @@
         <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>32</v>
@@ -1051,7 +1051,7 @@
         <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
